--- a/temp/planilha3-2024.xlsx
+++ b/temp/planilha3-2024.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>data entrada</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>descrição entrada</t>
@@ -22,37 +22,25 @@
     <t>entrada</t>
   </si>
   <si>
-    <t>data saída</t>
-  </si>
-  <si>
     <t>descrição saída</t>
   </si>
   <si>
     <t>saída</t>
   </si>
   <si>
-    <t xml:space="preserve">agora vai </t>
-  </si>
-  <si>
-    <t>teste2</t>
-  </si>
-  <si>
-    <t>teste 4000</t>
-  </si>
-  <si>
-    <t>teste40000</t>
-  </si>
-  <si>
-    <t>teste agora vai mesmo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">venda do dia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">teste da cor </t>
-  </si>
-  <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>venda</t>
+  </si>
+  <si>
+    <t>coca cola</t>
+  </si>
+  <si>
+    <t>itaipava</t>
+  </si>
+  <si>
+    <t>TOTAL GERAL</t>
   </si>
 </sst>
 </file>
@@ -78,7 +66,7 @@
       <sz val="18"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,13 +74,8 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCEEFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+      <patternFill patternType="darkVertical">
+        <fgColor rgb="0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -115,33 +98,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,176 +458,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="6" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>45368</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="4">
+        <v>45372</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11">
-        <v>800</v>
-      </c>
-      <c r="D2" s="12">
-        <v>45369</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14">
-        <v>500</v>
+      <c r="E2" s="6">
+        <v>900</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:f3" si="0">C2 - E2</f>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>45368</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="4">
+        <v>45373</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11">
-        <v>800</v>
-      </c>
-      <c r="D3" s="12">
-        <v>45369</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6">
+        <v>600</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <f>SUM(C2:C3)</f>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <f>SUM(E2:E3)</f>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>45368</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11">
-        <v>8000</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>45368</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>45369</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11">
-        <v>500</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>45369</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11">
-        <v>500</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>45369</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11">
-        <v>500</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16">
-        <f>SUM(C2:C8)</f>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18">
-        <f>SUM(F2:F8)</f>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="11">
+        <f>C4 - E4</f>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
+  <mergeCells count="7">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="H8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
